--- a/FL-gt-structure/ig/StructureDefinition-fr-core-location.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="346">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-02T22:07:39+00:00</t>
+    <t>2025-12-02T20:15:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -316,13 +316,203 @@
 </t>
   </si>
   <si>
-    <t>Location.implicitRules</t>
+    <t>Location.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Location.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Location.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>Location.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>Location.meta.source</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>Location.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:$this}
+</t>
+  </si>
+  <si>
+    <t>Slice based on the canonical url value</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>Location.meta.profile:fr-canonical</t>
+  </si>
+  <si>
+    <t>fr-canonical</t>
+  </si>
+  <si>
+    <t>Location.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>Location.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Location.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -418,28 +608,13 @@
     <t>Location.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
     <t>An Extension</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Location.extension:typeChambre</t>
@@ -481,10 +656,6 @@
     <t>Location.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -492,9 +663,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -550,10 +718,6 @@
     <t>Location.operationalStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
     <t>The operational status of the location (typically only for a bed/room)</t>
   </si>
   <si>
@@ -566,14 +730,7 @@
     <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Location.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Name of the location as used by humans</t>
@@ -712,9 +869,6 @@
     <t>For purposes of showing relevant locations in queries, we need to categorize locations.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Physical form of the location.</t>
   </si>
   <si>
@@ -746,25 +900,7 @@
     <t>Location.position.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Location.position.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Location.position.modifierExtension</t>
@@ -1269,7 +1405,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL42"/>
+  <dimension ref="A1:AL51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1302,11 +1438,11 @@
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="72.59765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="46.23828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="32.84765625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1775,10 +1911,10 @@
         <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>99</v>
@@ -1789,9 +1925,7 @@
       <c r="M5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="N5" t="s" s="2">
-        <v>102</v>
-      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
         <v>76</v>
@@ -1840,7 +1974,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -1852,10 +1986,10 @@
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>76</v>
@@ -1870,14 +2004,14 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>76</v>
@@ -1889,16 +2023,16 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1924,46 +2058,46 @@
         <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AD6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>76</v>
@@ -1971,14 +2105,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -1994,10 +2128,10 @@
         <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>116</v>
@@ -2071,7 +2205,7 @@
         <v>97</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>76</v>
@@ -2079,21 +2213,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>76</v>
@@ -2102,19 +2236,19 @@
         <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2164,22 +2298,22 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>76</v>
@@ -2187,10 +2321,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2201,7 +2335,7 @@
         <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>76</v>
@@ -2210,18 +2344,20 @@
         <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>76</v>
@@ -2258,29 +2394,31 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
@@ -2291,14 +2429,12 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
         <v>76</v>
       </c>
@@ -2307,7 +2443,7 @@
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>76</v>
@@ -2316,18 +2452,20 @@
         <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>76</v>
@@ -2364,19 +2502,19 @@
         <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2385,10 +2523,10 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
@@ -2399,13 +2537,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>76</v>
@@ -2424,18 +2562,20 @@
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>76</v>
@@ -2445,7 +2585,7 @@
         <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>76</v>
@@ -2484,7 +2624,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2493,10 +2633,10 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
@@ -2507,14 +2647,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2527,26 +2667,24 @@
         <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J12" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>76</v>
       </c>
@@ -2570,13 +2708,13 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -2594,7 +2732,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2606,10 +2744,10 @@
         <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>76</v>
@@ -2617,10 +2755,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2643,18 +2781,18 @@
         <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>76</v>
       </c>
@@ -2678,13 +2816,13 @@
         <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>76</v>
@@ -2702,7 +2840,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -2717,18 +2855,18 @@
         <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>161</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2751,15 +2889,17 @@
         <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -2784,13 +2924,13 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -2808,7 +2948,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -2823,18 +2963,18 @@
         <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>169</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2854,18 +2994,20 @@
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -2890,13 +3032,13 @@
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -2914,7 +3056,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -2929,22 +3071,22 @@
         <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>169</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -2960,19 +3102,19 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3022,7 +3164,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3037,7 +3179,7 @@
         <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3045,14 +3187,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3071,7 +3213,7 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>184</v>
@@ -3082,9 +3224,7 @@
       <c r="N17" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="O17" t="s" s="2">
-        <v>187</v>
-      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>76</v>
       </c>
@@ -3132,7 +3272,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3144,10 +3284,10 @@
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3155,10 +3295,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3169,7 +3309,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3178,21 +3318,19 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>191</v>
-      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3228,34 +3366,32 @@
         <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AC18" s="2"/>
       <c r="AD18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3266,9 +3402,11 @@
         <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3286,23 +3424,19 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O19" t="s" s="2">
         <v>197</v>
       </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3326,59 +3460,61 @@
         <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AA19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>199</v>
+        <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>200</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>76</v>
       </c>
@@ -3387,7 +3523,7 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -3396,16 +3532,16 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3432,11 +3568,13 @@
         <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="Y20" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z20" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>76</v>
@@ -3454,7 +3592,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3463,28 +3601,28 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>200</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3497,22 +3635,26 @@
         <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>208</v>
+        <v>106</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3560,7 +3702,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3572,10 +3714,10 @@
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -3583,10 +3725,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3597,7 +3739,7 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -3606,22 +3748,20 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3670,13 +3810,13 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
@@ -3685,18 +3825,18 @@
         <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>76</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3713,24 +3853,22 @@
         <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>222</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
       </c>
@@ -3754,13 +3892,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -3778,7 +3916,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3793,18 +3931,18 @@
         <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3824,21 +3962,19 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>228</v>
+        <v>143</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>231</v>
-      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
@@ -3862,13 +3998,13 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>76</v>
@@ -3886,7 +4022,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3901,18 +4037,18 @@
         <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>232</v>
+        <v>103</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3932,18 +4068,20 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -3992,7 +4130,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4004,10 +4142,10 @@
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4015,14 +4153,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4041,18 +4179,20 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O26" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4100,7 +4240,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4112,10 +4252,10 @@
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4123,45 +4263,43 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>242</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>153</v>
+        <v>242</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4210,22 +4348,22 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4233,10 +4371,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4244,7 +4382,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>85</v>
@@ -4256,19 +4394,23 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4292,13 +4434,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4316,10 +4458,10 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>85</v>
@@ -4334,15 +4476,15 @@
         <v>250</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4350,10 +4492,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -4362,16 +4504,16 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4398,13 +4540,11 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4422,13 +4562,13 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
@@ -4437,18 +4577,18 @@
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4459,7 +4599,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -4471,13 +4611,13 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4528,13 +4668,13 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
@@ -4543,7 +4683,7 @@
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -4551,10 +4691,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4574,22 +4714,22 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -4638,7 +4778,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4653,7 +4793,7 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4661,10 +4801,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4684,20 +4824,20 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -4722,13 +4862,13 @@
         <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>76</v>
+        <v>274</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
@@ -4746,7 +4886,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4761,18 +4901,18 @@
         <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4783,7 +4923,7 @@
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
@@ -4795,18 +4935,18 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
       </c>
@@ -4854,13 +4994,13 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>76</v>
@@ -4869,7 +5009,7 @@
         <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -4877,10 +5017,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4903,13 +5043,13 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4960,7 +5100,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>236</v>
+        <v>102</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -4975,7 +5115,7 @@
         <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -4983,14 +5123,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5009,16 +5149,16 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>238</v>
+        <v>107</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5068,7 +5208,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>240</v>
+        <v>113</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5080,10 +5220,10 @@
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5091,14 +5231,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>242</v>
+        <v>286</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5117,19 +5257,19 @@
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5178,7 +5318,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5190,10 +5330,10 @@
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5201,10 +5341,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5212,10 +5352,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -5227,13 +5367,13 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>105</v>
+        <v>291</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5260,13 +5400,13 @@
         <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>76</v>
@@ -5284,13 +5424,13 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
@@ -5299,7 +5439,7 @@
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5307,10 +5447,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5318,7 +5458,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>85</v>
@@ -5333,13 +5473,13 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5390,10 +5530,10 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>85</v>
@@ -5405,7 +5545,7 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -5413,10 +5553,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5439,13 +5579,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5496,7 +5636,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5511,7 +5651,7 @@
         <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -5519,10 +5659,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5542,19 +5682,23 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
       </c>
@@ -5602,7 +5746,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5617,7 +5761,7 @@
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -5625,10 +5769,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5651,16 +5795,18 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>178</v>
+        <v>309</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
       </c>
@@ -5708,7 +5854,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -5723,7 +5869,7 @@
         <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>176</v>
+        <v>313</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -5731,10 +5877,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5757,18 +5903,18 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>76</v>
       </c>
@@ -5816,7 +5962,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -5831,9 +5977,971 @@
         <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>176</v>
+        <v>318</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="P45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="P51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-location.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T20:15:58+00:00</t>
+    <t>2025-12-02T20:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-location.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T20:49:48+00:00</t>
+    <t>2025-12-02T21:43:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-location.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T14:08:03+00:00</t>
+    <t>2026-01-22T11:51:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-location.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T11:51:24+00:00</t>
+    <t>2026-01-22T13:05:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-location.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="347">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T13:05:19+00:00</t>
+    <t>2026-01-22T13:18:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -116,7 +116,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Location</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Location|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -458,6 +458,9 @@
     <t>fr-canonical</t>
   </si>
   <si>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location|2.2.0-ballot</t>
+  </si>
+  <si>
     <t>Location.meta.security</t>
   </si>
   <si>
@@ -623,7 +626,7 @@
     <t>typeChambre</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location-type-chambre}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location-type-chambre|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -643,7 +646,7 @@
     <t>positionLit</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location-position-lit}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location-position-lit|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -727,7 +730,7 @@
     <t>The operational status if the location (where typically a bed/room).</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0116|2.0.0</t>
   </si>
   <si>
     <t>Location.name</t>
@@ -813,7 +816,7 @@
     <t>Indicates the type of function performed at the location.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-type|2.2.0-ballot</t>
   </si>
   <si>
     <t>.code</t>
@@ -1424,7 +1427,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="69.609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.1171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1439,7 +1442,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="46.23828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.74609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -2585,7 +2588,7 @@
         <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>76</v>
@@ -2647,10 +2650,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2673,16 +2676,16 @@
         <v>86</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2708,13 +2711,13 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -2732,7 +2735,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2755,10 +2758,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2781,16 +2784,16 @@
         <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2816,13 +2819,13 @@
         <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>76</v>
@@ -2840,7 +2843,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -2863,10 +2866,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2892,13 +2895,13 @@
         <v>127</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2948,7 +2951,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -2971,10 +2974,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2997,16 +3000,16 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3032,13 +3035,13 @@
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -3056,7 +3059,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3079,14 +3082,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3105,16 +3108,16 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3164,7 +3167,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3179,7 +3182,7 @@
         <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3187,14 +3190,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3213,16 +3216,16 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3272,7 +3275,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3287,7 +3290,7 @@
         <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3295,10 +3298,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3324,10 +3327,10 @@
         <v>106</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3376,7 +3379,7 @@
         <v>112</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3399,13 +3402,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>76</v>
@@ -3427,13 +3430,13 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3484,7 +3487,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3493,7 +3496,7 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>114</v>
@@ -3507,13 +3510,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>76</v>
@@ -3535,13 +3538,13 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3592,7 +3595,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3601,7 +3604,7 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>114</v>
@@ -3615,10 +3618,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3644,16 +3647,16 @@
         <v>106</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>109</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -3702,7 +3705,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3717,7 +3720,7 @@
         <v>114</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -3725,10 +3728,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3751,17 +3754,17 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3810,7 +3813,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3825,18 +3828,18 @@
         <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3859,13 +3862,13 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3892,13 +3895,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -3916,7 +3919,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3931,18 +3934,18 @@
         <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3965,13 +3968,13 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3998,13 +4001,13 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>76</v>
@@ -4022,7 +4025,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4040,15 +4043,15 @@
         <v>103</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4074,13 +4077,13 @@
         <v>99</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4130,7 +4133,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4145,7 +4148,7 @@
         <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4153,10 +4156,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4182,16 +4185,16 @@
         <v>99</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4240,7 +4243,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4255,7 +4258,7 @@
         <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4263,10 +4266,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4292,14 +4295,14 @@
         <v>99</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4348,7 +4351,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4363,7 +4366,7 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4371,10 +4374,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4397,19 +4400,19 @@
         <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4434,13 +4437,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4458,7 +4461,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4473,18 +4476,18 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4507,13 +4510,13 @@
         <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4540,11 +4543,11 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4562,7 +4565,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4577,18 +4580,18 @@
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4611,13 +4614,13 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4668,7 +4671,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4683,7 +4686,7 @@
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -4691,10 +4694,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4717,19 +4720,19 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -4778,7 +4781,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4793,7 +4796,7 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4801,10 +4804,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4827,17 +4830,17 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -4862,13 +4865,13 @@
         <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
@@ -4886,7 +4889,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4901,18 +4904,18 @@
         <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4935,17 +4938,17 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -4994,7 +4997,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5009,7 +5012,7 @@
         <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5017,10 +5020,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5123,10 +5126,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5231,14 +5234,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5260,16 +5263,16 @@
         <v>106</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>109</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5318,7 +5321,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5333,7 +5336,7 @@
         <v>114</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5341,10 +5344,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5367,13 +5370,13 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5424,7 +5427,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>85</v>
@@ -5439,7 +5442,7 @@
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5447,10 +5450,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5473,13 +5476,13 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5530,7 +5533,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>85</v>
@@ -5545,7 +5548,7 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -5553,10 +5556,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5579,13 +5582,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5636,7 +5639,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5651,7 +5654,7 @@
         <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -5659,10 +5662,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5685,19 +5688,19 @@
         <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -5746,7 +5749,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5761,7 +5764,7 @@
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -5769,10 +5772,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5795,17 +5798,17 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -5854,7 +5857,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -5869,7 +5872,7 @@
         <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -5877,10 +5880,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5903,16 +5906,16 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5962,7 +5965,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -5977,7 +5980,7 @@
         <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -5985,10 +5988,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6091,10 +6094,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6199,14 +6202,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6228,16 +6231,16 @@
         <v>106</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>109</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>76</v>
@@ -6286,7 +6289,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6301,7 +6304,7 @@
         <v>114</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -6309,10 +6312,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6335,13 +6338,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6368,13 +6371,13 @@
         <v>76</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>76</v>
@@ -6392,7 +6395,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6407,7 +6410,7 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -6415,10 +6418,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6441,13 +6444,13 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6498,7 +6501,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6513,7 +6516,7 @@
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -6521,10 +6524,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6547,13 +6550,13 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6604,7 +6607,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6619,7 +6622,7 @@
         <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -6627,10 +6630,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6653,13 +6656,13 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6710,7 +6713,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -6725,7 +6728,7 @@
         <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -6733,10 +6736,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6762,10 +6765,10 @@
         <v>99</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6816,7 +6819,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -6839,10 +6842,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6865,17 +6868,17 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -6924,7 +6927,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
